--- a/elim/src/main/resources/excelTemplates/BusinessList.xlsx
+++ b/elim/src/main/resources/excelTemplates/BusinessList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\elim\elim\src\main\resources\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A027DD-6250-4022-8894-50DEF5F08016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3136CE-1B1F-42EF-9DE2-03ABFF373A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A446F207-523A-4631-96D1-2B2FDCFD7A2A}"/>
   </bookViews>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,14 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="微軟正黑體"/>
@@ -213,6 +205,22 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -235,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -258,42 +266,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,92 +658,92 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="10" width="15.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>23</v>
       </c>
     </row>

--- a/elim/src/main/resources/excelTemplates/BusinessList.xlsx
+++ b/elim/src/main/resources/excelTemplates/BusinessList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\elim\elim\src\main\resources\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3136CE-1B1F-42EF-9DE2-03ABFF373A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EFEDE8-E26A-4C12-9583-1A601AE67361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A446F207-523A-4631-96D1-2B2FDCFD7A2A}"/>
   </bookViews>

--- a/elim/src/main/resources/excelTemplates/BusinessList.xlsx
+++ b/elim/src/main/resources/excelTemplates/BusinessList.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\elim\elim\src\main\resources\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EFEDE8-E26A-4C12-9583-1A601AE67361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19AE323-F268-441B-A903-E4866C1D507C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A446F207-523A-4631-96D1-2B2FDCFD7A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
